--- a/used.xlsx
+++ b/used.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -31,127 +31,136 @@
     <t>Use%</t>
   </si>
   <si>
-    <t>sd-main</t>
-  </si>
-  <si>
-    <t>sd-backup</t>
-  </si>
-  <si>
-    <t>sd-yantai</t>
-  </si>
-  <si>
-    <t>sd-taian</t>
-  </si>
-  <si>
-    <t>sd-liaocheng</t>
-  </si>
-  <si>
-    <t>sd-linyi</t>
-  </si>
-  <si>
-    <t>sd-weifang</t>
-  </si>
-  <si>
-    <t>sd-heze</t>
-  </si>
-  <si>
-    <t>sd-qingdao</t>
-  </si>
-  <si>
-    <t>1.6T</t>
-  </si>
-  <si>
-    <t>2.1T</t>
-  </si>
-  <si>
-    <t>534G</t>
-  </si>
-  <si>
-    <t>574G</t>
-  </si>
-  <si>
-    <t>3.7T</t>
-  </si>
-  <si>
-    <t>1.9T</t>
-  </si>
-  <si>
-    <t>3.0T</t>
-  </si>
-  <si>
-    <t>570G</t>
-  </si>
-  <si>
-    <t>908G</t>
-  </si>
-  <si>
-    <t>720G</t>
-  </si>
-  <si>
-    <t>165G</t>
-  </si>
-  <si>
-    <t>440G</t>
-  </si>
-  <si>
-    <t>924G</t>
-  </si>
-  <si>
-    <t>258G</t>
-  </si>
-  <si>
-    <t>732G</t>
-  </si>
-  <si>
-    <t>284G</t>
-  </si>
-  <si>
-    <t>116G</t>
-  </si>
-  <si>
-    <t>556G</t>
-  </si>
-  <si>
-    <t>1.4T</t>
-  </si>
-  <si>
-    <t>343G</t>
-  </si>
-  <si>
-    <t>107G</t>
-  </si>
-  <si>
-    <t>2.6T</t>
-  </si>
-  <si>
-    <t>2.8T</t>
-  </si>
-  <si>
-    <t>453G</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>35%</t>
+    <t>区域中心（主）</t>
+  </si>
+  <si>
+    <t>区域中心（备）</t>
+  </si>
+  <si>
+    <t>泰安地震监测中心站</t>
+  </si>
+  <si>
+    <t>烟台地震监测中心站</t>
+  </si>
+  <si>
+    <t>聊城地震监测中心站</t>
+  </si>
+  <si>
+    <t>菏泽地震监测中心站</t>
+  </si>
+  <si>
+    <t>潍坊地震监测中心站</t>
+  </si>
+  <si>
+    <t>临沂地震监测中心站</t>
+  </si>
+  <si>
+    <t>青岛地震监测中心站</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>3696</t>
+  </si>
+  <si>
+    <t>3056</t>
+  </si>
+  <si>
+    <t>3729</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>2610</t>
+  </si>
+  <si>
+    <t>2617</t>
+  </si>
+  <si>
+    <t>2811</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>81%</t>
   </si>
   <si>
     <t>33%</t>
   </si>
   <si>
-    <t>81%</t>
-  </si>
-  <si>
     <t>27%</t>
   </si>
   <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
     <t>14%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>10%</t>
   </si>
 </sst>
 </file>
@@ -543,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,13 +572,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,13 +592,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -603,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -623,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,13 +652,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -660,16 +669,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -680,16 +689,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -700,16 +709,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
